--- a/xlsx/哥伦比亚 (美国)_intext.xlsx
+++ b/xlsx/哥伦比亚 (美国)_intext.xlsx
@@ -29,7 +29,7 @@
     <t>哥伦比亚 (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_美國_哥伦比亚 (美国)</t>
+    <t>政策_政策_美国_哥伦比亚 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%AD%E6%98%AD%E5%A4%A9%E5%91%BD</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E5%82%91%E6%98%8E%C2%B7%E5%AF%8C%E8%98%AD%E5%85%8B%E6%9E%97</t>
   </si>
   <si>
-    <t>本傑明·富蘭克林</t>
+    <t>本杰明·富兰克林</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E6%B2%B3</t>
   </si>
   <si>
-    <t>哥倫比亞河</t>
+    <t>哥伦比亚河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E5%88%97%E9%A2%A0%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A</t>
@@ -125,13 +125,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>哥倫比亞廣播公司</t>
+    <t>哥伦比亚广播公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E9%9B%BB%E5%BD%B1%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>哥倫比亞電影公司</t>
+    <t>哥伦比亚电影公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E5%A4%A7%E5%AD%A6</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E8%99%9F%E5%A4%AA%E7%A9%BA%E6%A2%AD</t>
   </si>
   <si>
-    <t>哥倫比亞號太空梭</t>
+    <t>哥伦比亚号太空梭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%B3%A2%E7%BD%9711%E5%8F%B7</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>亞美尼亞</t>
+    <t>亚美尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E7%BE%8E%E5%B0%BC%E4%BA%9A%E6%AF%8D%E4%BA%B2</t>
@@ -269,13 +269,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
+    <t>中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BE%8D</t>
   </si>
   <si>
-    <t>龍</t>
+    <t>龙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%A4%E5%87%B0</t>
@@ -305,7 +305,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E5%85%B5%E5%B8%A5%E5%85%8B</t>
   </si>
   <si>
-    <t>好兵帥克</t>
+    <t>好兵帅克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A6</t>
@@ -359,7 +359,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%84%8F%E5%BF%97%E7%B1%B3%E6%AD%87%E7%88%BE</t>
   </si>
   <si>
-    <t>德意志米歇爾</t>
+    <t>德意志米歇尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%80%B3%E6%9B%BC%E5%A6%AE%E5%A8%85</t>
@@ -551,7 +551,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF%E6%AF%8D%E8%A6%AA</t>
   </si>
   <si>
-    <t>俄羅斯母親</t>
+    <t>俄罗斯母亲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%B7%B4%E5%A6%AE%E5%A8%85_(%E6%8B%9F%E4%BA%BA)</t>
@@ -629,13 +629,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E9%A0%AD%E6%B5%B7%E9%9B%95</t>
   </si>
   <si>
-    <t>白頭海雕</t>
+    <t>白头海雕</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
